--- a/SuppXLS/Scen_AF_SOLAR.xlsx
+++ b/SuppXLS/Scen_AF_SOLAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{14F12A94-1D65-46E7-8094-E0299A121101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F8B046E-A7C3-4B3A-94C2-1BAB9AAC3F2D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C39DCE-F1B4-409A-B341-1FB6E8C084EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AF_SOLAR" sheetId="2" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>NCAP_AF</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
     <t>*_PV*</t>
   </si>
   <si>
@@ -771,6 +768,9 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -963,8 +963,8 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,7 +987,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2847,7 +2847,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2885,7 +2885,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2957,7 +2957,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3133,8 +3133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="J208" sqref="J208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3152,7 +3152,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F1" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G1" s="14">
         <f>AVERAGE(G7:G230)</f>
@@ -3217,111 +3217,111 @@
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E7" s="6">
         <v>2020</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E8" s="8">
         <v>2020</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="7">
         <v>2.797786626645218E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E9" s="10">
         <v>2020</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="9">
         <v>0.24275203052210406</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E10" s="8">
         <v>2020</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7">
         <v>0.44213991610075609</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E11" s="10">
         <v>2020</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="9">
         <v>0.4110463221842578</v>
@@ -3329,19 +3329,19 @@
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E12" s="8">
         <v>2020</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7">
         <v>0.17338351358426582</v>
@@ -3349,19 +3349,19 @@
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E13" s="10">
         <v>2020</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="9">
         <v>1.0136248778061269E-2</v>
@@ -3369,19 +3369,19 @@
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E14" s="8">
         <v>2020</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -3389,19 +3389,19 @@
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E15" s="10">
         <v>2020</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
@@ -3409,19 +3409,19 @@
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E16" s="8">
         <v>2020</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7">
         <v>2.9812992896118384E-2</v>
@@ -3429,19 +3429,19 @@
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E17" s="10">
         <v>2020</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="9">
         <v>0.24448597653887313</v>
@@ -3449,19 +3449,19 @@
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E18" s="8">
         <v>2020</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7">
         <v>0.44059572817906073</v>
@@ -3469,19 +3469,19 @@
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E19" s="10">
         <v>2020</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="9">
         <v>0.41008012644336417</v>
@@ -3489,19 +3489,19 @@
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E20" s="8">
         <v>2020</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="7">
         <v>0.17582768770724308</v>
@@ -3509,19 +3509,19 @@
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E21" s="10">
         <v>2020</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="9">
         <v>1.1248770286622382E-2</v>
@@ -3529,19 +3529,19 @@
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E22" s="8">
         <v>2020</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -3549,19 +3549,19 @@
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E23" s="10">
         <v>2020</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="9">
         <v>0</v>
@@ -3569,19 +3569,19 @@
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E24" s="8">
         <v>2020</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="7">
         <v>2.7683493403538501E-2</v>
@@ -3589,19 +3589,19 @@
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E25" s="10">
         <v>2020</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="9">
         <v>0.23875805858357438</v>
@@ -3609,19 +3609,19 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E26" s="8">
         <v>2020</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="7">
         <v>0.43557791333386497</v>
@@ -3629,19 +3629,19 @@
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E27" s="10">
         <v>2020</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="9">
         <v>0.40492221576882476</v>
@@ -3649,19 +3649,19 @@
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E28" s="8">
         <v>2020</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="7">
         <v>0.16999398459642889</v>
@@ -3669,19 +3669,19 @@
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E29" s="10">
         <v>2020</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" s="9">
         <v>1.0445286694720782E-2</v>
@@ -3689,19 +3689,19 @@
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E30" s="8">
         <v>2020</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -3709,19 +3709,19 @@
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E31" s="10">
         <v>2020</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="9">
         <v>0</v>
@@ -3729,19 +3729,19 @@
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E32" s="8">
         <v>2020</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" s="7">
         <v>2.7683493403538501E-2</v>
@@ -3749,19 +3749,19 @@
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E33" s="10">
         <v>2020</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" s="9">
         <v>0.23875805858357438</v>
@@ -3769,19 +3769,19 @@
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E34" s="8">
         <v>2020</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" s="7">
         <v>0.43557791333386497</v>
@@ -3789,19 +3789,19 @@
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E35" s="10">
         <v>2020</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" s="9">
         <v>0.40492221576882476</v>
@@ -3809,19 +3809,19 @@
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E36" s="8">
         <v>2020</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" s="7">
         <v>0.16999398459642889</v>
@@ -3829,19 +3829,19 @@
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E37" s="10">
         <v>2020</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" s="9">
         <v>1.0445286694720782E-2</v>
@@ -3849,19 +3849,19 @@
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E38" s="8">
         <v>2020</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
@@ -3869,19 +3869,19 @@
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E39" s="10">
         <v>2020</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" s="9">
         <v>0</v>
@@ -3889,19 +3889,19 @@
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E40" s="8">
         <v>2020</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="7">
         <v>2.8496603115532131E-2</v>
@@ -3909,19 +3909,19 @@
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E41" s="10">
         <v>2020</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" s="9">
         <v>0.23871475291815977</v>
@@ -3929,19 +3929,19 @@
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E42" s="8">
         <v>2020</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" s="7">
         <v>0.43503691222420515</v>
@@ -3949,19 +3949,19 @@
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E43" s="10">
         <v>2020</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" s="9">
         <v>0.40419058287840082</v>
@@ -3969,19 +3969,19 @@
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E44" s="8">
         <v>2020</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44" s="7">
         <v>0.16828158144826558</v>
@@ -3989,19 +3989,19 @@
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E45" s="10">
         <v>2020</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" s="9">
         <v>1.0136248778061269E-2</v>
@@ -4009,19 +4009,19 @@
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E46" s="8">
         <v>2020</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="7">
         <v>0</v>
@@ -4029,19 +4029,19 @@
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E47" s="10">
         <v>2020</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
@@ -4049,19 +4049,19 @@
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E48" s="8">
         <v>2020</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" s="7">
         <v>2.69357820981155E-2</v>
@@ -4069,19 +4069,19 @@
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E49" s="10">
         <v>2020</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="9">
         <v>0.23721376436782324</v>
@@ -4089,19 +4089,19 @@
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E50" s="8">
         <v>2020</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" s="7">
         <v>0.43503691222420515</v>
@@ -4109,19 +4109,19 @@
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E51" s="10">
         <v>2020</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" s="9">
         <v>0.40419058287840082</v>
@@ -4129,19 +4129,19 @@
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E52" s="8">
         <v>2020</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="7">
         <v>0.16828158144826558</v>
@@ -4149,19 +4149,19 @@
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E53" s="10">
         <v>2020</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" s="9">
         <v>1.0136248778061269E-2</v>
@@ -4169,19 +4169,19 @@
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E54" s="8">
         <v>2020</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" s="7">
         <v>0</v>
@@ -4189,19 +4189,19 @@
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E55" s="10">
         <v>2020</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" s="9">
         <v>0</v>
@@ -4209,19 +4209,19 @@
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E56" s="8">
         <v>2020</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G56" s="7">
         <v>2.797786626645218E-2</v>
@@ -4229,19 +4229,19 @@
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E57" s="10">
         <v>2020</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="9">
         <v>0.24275203052210406</v>
@@ -4249,19 +4249,19 @@
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E58" s="8">
         <v>2020</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" s="7">
         <v>0.44213991610075609</v>
@@ -4269,19 +4269,19 @@
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E59" s="10">
         <v>2020</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G59" s="9">
         <v>0.4110463221842578</v>
@@ -4289,19 +4289,19 @@
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E60" s="8">
         <v>2020</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G60" s="7">
         <v>0.17338351358426582</v>
@@ -4309,19 +4309,19 @@
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E61" s="10">
         <v>2020</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" s="9">
         <v>1.0136248778061269E-2</v>
@@ -4329,19 +4329,19 @@
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E62" s="8">
         <v>2020</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" s="7">
         <v>0</v>
@@ -4349,19 +4349,19 @@
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E63" s="10">
         <v>2020</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G63" s="9">
         <v>0</v>
@@ -4369,19 +4369,19 @@
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E64" s="8">
         <v>2020</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" s="7">
         <v>2.6938802029024655E-2</v>
@@ -4389,19 +4389,19 @@
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E65" s="10">
         <v>2020</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" s="9">
         <v>0.2224499213639943</v>
@@ -4409,19 +4409,19 @@
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E66" s="8">
         <v>2020</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G66" s="7">
         <v>0.4068117911255183</v>
@@ -4429,19 +4429,19 @@
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E67" s="10">
         <v>2020</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G67" s="9">
         <v>0.37784618949929022</v>
@@ -4449,19 +4449,19 @@
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E68" s="8">
         <v>2020</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" s="7">
         <v>0.15980116889008028</v>
@@ -4469,19 +4469,19 @@
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E69" s="10">
         <v>2020</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G69" s="9">
         <v>1.1793152733118005E-2</v>
@@ -4489,19 +4489,19 @@
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E70" s="8">
         <v>2020</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G70" s="7">
         <v>0</v>
@@ -4509,19 +4509,19 @@
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E71" s="10">
         <v>2020</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G71" s="9">
         <v>0</v>
@@ -4529,19 +4529,19 @@
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E72" s="8">
         <v>2020</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72" s="7">
         <v>2.6938802029024655E-2</v>
@@ -4549,19 +4549,19 @@
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E73" s="10">
         <v>2020</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G73" s="9">
         <v>0.2224499213639943</v>
@@ -4569,19 +4569,19 @@
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E74" s="8">
         <v>2020</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G74" s="7">
         <v>0.4068117911255183</v>
@@ -4589,19 +4589,19 @@
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E75" s="10">
         <v>2020</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G75" s="9">
         <v>0.37784618949929022</v>
@@ -4609,19 +4609,19 @@
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E76" s="8">
         <v>2020</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G76" s="7">
         <v>0.15980116889008028</v>
@@ -4629,19 +4629,19 @@
     </row>
     <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E77" s="10">
         <v>2020</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G77" s="9">
         <v>1.1793152733118005E-2</v>
@@ -4649,19 +4649,19 @@
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E78" s="8">
         <v>2020</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G78" s="7">
         <v>0</v>
@@ -4669,19 +4669,19 @@
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E79" s="10">
         <v>2020</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G79" s="9">
         <v>0</v>
@@ -4689,19 +4689,19 @@
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E80" s="8">
         <v>2020</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G80" s="7">
         <v>2.5204699252284708E-2</v>
@@ -4709,19 +4709,19 @@
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E81" s="10">
         <v>2020</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" s="9">
         <v>0.22167302337291472</v>
@@ -4729,19 +4729,19 @@
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E82" s="8">
         <v>2020</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G82" s="7">
         <v>0.40982949127561052</v>
@@ -4749,19 +4749,19 @@
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E83" s="10">
         <v>2020</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G83" s="9">
         <v>0.3801793917016294</v>
@@ -4769,19 +4769,19 @@
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E84" s="8">
         <v>2020</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G84" s="7">
         <v>0.15808527674710521</v>
@@ -4789,19 +4789,19 @@
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E85" s="10">
         <v>2020</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G85" s="9">
         <v>1.0669143291481168E-2</v>
@@ -4809,19 +4809,19 @@
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E86" s="8">
         <v>2020</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G86" s="7">
         <v>0</v>
@@ -4829,19 +4829,19 @@
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E87" s="10">
         <v>2020</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G87" s="9">
         <v>0</v>
@@ -4849,19 +4849,19 @@
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E88" s="8">
         <v>2020</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G88" s="7">
         <v>2.5204699252284708E-2</v>
@@ -4869,19 +4869,19 @@
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E89" s="10">
         <v>2020</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G89" s="9">
         <v>0.22167302337291472</v>
@@ -4889,19 +4889,19 @@
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E90" s="8">
         <v>2020</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G90" s="7">
         <v>0.40982949127561052</v>
@@ -4909,19 +4909,19 @@
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E91" s="10">
         <v>2020</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G91" s="9">
         <v>0.3801793917016294</v>
@@ -4929,19 +4929,19 @@
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E92" s="8">
         <v>2020</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G92" s="7">
         <v>0.15808527674710521</v>
@@ -4949,19 +4949,19 @@
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E93" s="10">
         <v>2020</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G93" s="9">
         <v>1.0669143291481168E-2</v>
@@ -4969,19 +4969,19 @@
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E94" s="8">
         <v>2020</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G94" s="7">
         <v>0</v>
@@ -4989,19 +4989,19 @@
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E95" s="10">
         <v>2020</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G95" s="9">
         <v>0</v>
@@ -5009,19 +5009,19 @@
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E96" s="8">
         <v>2020</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G96" s="7">
         <v>2.5204699252284708E-2</v>
@@ -5029,19 +5029,19 @@
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E97" s="10">
         <v>2020</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G97" s="9">
         <v>0.22167302337291472</v>
@@ -5049,19 +5049,19 @@
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E98" s="8">
         <v>2020</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G98" s="7">
         <v>0.41135600438017</v>
@@ -5069,19 +5069,19 @@
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E99" s="10">
         <v>2020</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G99" s="9">
         <v>0.38190536605957109</v>
@@ -5089,19 +5089,19 @@
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E100" s="8">
         <v>2020</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G100" s="7">
         <v>0.16080309318731589</v>
@@ -5109,19 +5109,19 @@
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E101" s="10">
         <v>2020</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G101" s="9">
         <v>1.1667064381842481E-2</v>
@@ -5129,19 +5129,19 @@
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E102" s="8">
         <v>2020</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G102" s="7">
         <v>0</v>
@@ -5149,19 +5149,19 @@
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E103" s="10">
         <v>2020</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G103" s="9">
         <v>0</v>
@@ -5169,19 +5169,19 @@
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E104" s="8">
         <v>2020</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G104" s="7">
         <v>2.5732733669931666E-2</v>
@@ -5189,19 +5189,19 @@
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E105" s="10">
         <v>2020</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G105" s="9">
         <v>0.22018445434210651</v>
@@ -5209,19 +5209,19 @@
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E106" s="8">
         <v>2020</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G106" s="7">
         <v>0.4074634421905789</v>
@@ -5229,19 +5229,19 @@
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E107" s="10">
         <v>2020</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G107" s="9">
         <v>0.37794873721487554</v>
@@ -5249,19 +5249,19 @@
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E108" s="8">
         <v>2020</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G108" s="7">
         <v>0.15696872957580474</v>
@@ -5269,19 +5269,19 @@
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E109" s="10">
         <v>2020</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G109" s="9">
         <v>1.122571253051232E-2</v>
@@ -5289,19 +5289,19 @@
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E110" s="8">
         <v>2020</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G110" s="7">
         <v>0</v>
@@ -5309,19 +5309,19 @@
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E111" s="10">
         <v>2020</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G111" s="9">
         <v>0</v>
@@ -5329,19 +5329,19 @@
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E112" s="8">
         <v>2020</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G112" s="7">
         <v>2.6938802029024655E-2</v>
@@ -5349,19 +5349,19 @@
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E113" s="10">
         <v>2020</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G113" s="9">
         <v>0.2224499213639943</v>
@@ -5369,19 +5369,19 @@
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E114" s="8">
         <v>2020</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G114" s="7">
         <v>0.4068117911255183</v>
@@ -5389,19 +5389,19 @@
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E115" s="10">
         <v>2020</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G115" s="9">
         <v>0.37784618949929022</v>
@@ -5409,19 +5409,19 @@
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E116" s="8">
         <v>2020</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G116" s="7">
         <v>0.15980116889008028</v>
@@ -5429,19 +5429,19 @@
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E117" s="10">
         <v>2020</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G117" s="9">
         <v>1.1793152733118005E-2</v>
@@ -5449,19 +5449,19 @@
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E118" s="8">
         <v>2020</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G118" s="7">
         <v>0</v>
@@ -5469,19 +5469,19 @@
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E119" s="10">
         <v>2020</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G119" s="9">
         <v>0</v>
@@ -5489,19 +5489,19 @@
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E120" s="8">
         <v>2020</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G120" s="7">
         <v>2.7557443822961937E-4</v>
@@ -5509,19 +5509,19 @@
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E121" s="10">
         <v>2020</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G121" s="9">
         <v>6.8003067665319453E-2</v>
@@ -5529,19 +5529,19 @@
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E122" s="8">
         <v>2020</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G122" s="7">
         <v>0.21543280991688649</v>
@@ -5549,19 +5549,19 @@
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E123" s="10">
         <v>2020</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G123" s="9">
         <v>0.19087398538556155</v>
@@ -5569,19 +5569,19 @@
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E124" s="8">
         <v>2020</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G124" s="7">
         <v>3.2594049773490119E-2</v>
@@ -5589,19 +5589,19 @@
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E125" s="10">
         <v>2020</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G125" s="9">
         <v>0</v>
@@ -5609,19 +5609,19 @@
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E126" s="8">
         <v>2020</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G126" s="7">
         <v>0</v>
@@ -5629,19 +5629,19 @@
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E127" s="10">
         <v>2020</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G127" s="9">
         <v>0</v>
@@ -5649,19 +5649,19 @@
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E128" s="8">
         <v>2020</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G128" s="7">
         <v>2.7557443822961937E-4</v>
@@ -5669,19 +5669,19 @@
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E129" s="10">
         <v>2020</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G129" s="9">
         <v>6.8003067665319453E-2</v>
@@ -5689,19 +5689,19 @@
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E130" s="8">
         <v>2020</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G130" s="7">
         <v>0.21543280991688649</v>
@@ -5709,19 +5709,19 @@
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E131" s="10">
         <v>2020</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G131" s="9">
         <v>0.19087398538556155</v>
@@ -5729,19 +5729,19 @@
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E132" s="8">
         <v>2020</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G132" s="7">
         <v>3.2594049773490119E-2</v>
@@ -5749,19 +5749,19 @@
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E133" s="10">
         <v>2020</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G133" s="9">
         <v>0</v>
@@ -5769,19 +5769,19 @@
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E134" s="8">
         <v>2020</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G134" s="7">
         <v>0</v>
@@ -5789,19 +5789,19 @@
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E135" s="10">
         <v>2020</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G135" s="9">
         <v>0</v>
@@ -5809,19 +5809,19 @@
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E136" s="8">
         <v>2020</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G136" s="7">
         <v>2.7557443822961937E-4</v>
@@ -5829,19 +5829,19 @@
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E137" s="10">
         <v>2020</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G137" s="9">
         <v>6.8003067665319453E-2</v>
@@ -5849,19 +5849,19 @@
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E138" s="8">
         <v>2020</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G138" s="7">
         <v>0.21543280991688649</v>
@@ -5869,19 +5869,19 @@
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E139" s="10">
         <v>2020</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G139" s="9">
         <v>0.19087398538556155</v>
@@ -5889,19 +5889,19 @@
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E140" s="8">
         <v>2020</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G140" s="7">
         <v>3.2594049773490119E-2</v>
@@ -5909,19 +5909,19 @@
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E141" s="10">
         <v>2020</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G141" s="9">
         <v>0</v>
@@ -5929,19 +5929,19 @@
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E142" s="8">
         <v>2020</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G142" s="7">
         <v>0</v>
@@ -5949,19 +5949,19 @@
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E143" s="10">
         <v>2020</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G143" s="9">
         <v>0</v>
@@ -5969,19 +5969,19 @@
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E144" s="8">
         <v>2020</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G144" s="7">
         <v>2.7557443822961937E-4</v>
@@ -5989,19 +5989,19 @@
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E145" s="10">
         <v>2020</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G145" s="9">
         <v>6.3347885570548185E-2</v>
@@ -6009,19 +6009,19 @@
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E146" s="8">
         <v>2020</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G146" s="7">
         <v>0.20589274096013674</v>
@@ -6029,19 +6029,19 @@
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E147" s="10">
         <v>2020</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G147" s="9">
         <v>0.18205542045172521</v>
@@ -6049,19 +6049,19 @@
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E148" s="8">
         <v>2020</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G148" s="7">
         <v>2.9710429861411605E-2</v>
@@ -6069,19 +6069,19 @@
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E149" s="10">
         <v>2020</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G149" s="9">
         <v>0</v>
@@ -6089,19 +6089,19 @@
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E150" s="8">
         <v>2020</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G150" s="7">
         <v>0</v>
@@ -6109,19 +6109,19 @@
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E151" s="10">
         <v>2020</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G151" s="9">
         <v>0</v>
@@ -6129,19 +6129,19 @@
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E152" s="8">
         <v>2020</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G152" s="7">
         <v>2.7557443822961937E-4</v>
@@ -6149,19 +6149,19 @@
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E153" s="10">
         <v>2020</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G153" s="9">
         <v>6.3347885570548185E-2</v>
@@ -6169,19 +6169,19 @@
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E154" s="8">
         <v>2020</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G154" s="7">
         <v>0.20589274096013674</v>
@@ -6189,19 +6189,19 @@
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E155" s="10">
         <v>2020</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G155" s="9">
         <v>0.18205542045172521</v>
@@ -6209,19 +6209,19 @@
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E156" s="8">
         <v>2020</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G156" s="7">
         <v>2.9710429861411605E-2</v>
@@ -6229,19 +6229,19 @@
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E157" s="10">
         <v>2020</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G157" s="9">
         <v>0</v>
@@ -6249,19 +6249,19 @@
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E158" s="8">
         <v>2020</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G158" s="7">
         <v>0</v>
@@ -6269,19 +6269,19 @@
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E159" s="10">
         <v>2020</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G159" s="9">
         <v>0</v>
@@ -6289,19 +6289,19 @@
     </row>
     <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E160" s="8">
         <v>2020</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G160" s="7">
         <v>2.9853897474875431E-4</v>
@@ -6309,19 +6309,19 @@
     </row>
     <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E161" s="10">
         <v>2020</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G161" s="9">
         <v>6.5386356278727659E-2</v>
@@ -6329,19 +6329,19 @@
     </row>
     <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E162" s="8">
         <v>2020</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G162" s="7">
         <v>0.20999646071088091</v>
@@ -6349,19 +6349,19 @@
     </row>
     <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E163" s="10">
         <v>2020</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G163" s="9">
         <v>0.18582743031921076</v>
@@ -6369,19 +6369,19 @@
     </row>
     <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E164" s="8">
         <v>2020</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G164" s="7">
         <v>3.0991213716432004E-2</v>
@@ -6389,19 +6389,19 @@
     </row>
     <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E165" s="10">
         <v>2020</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G165" s="9">
         <v>0</v>
@@ -6409,19 +6409,19 @@
     </row>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E166" s="8">
         <v>2020</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G166" s="7">
         <v>0</v>
@@ -6429,19 +6429,19 @@
     </row>
     <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E167" s="10">
         <v>2020</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G167" s="9">
         <v>0</v>
@@ -6449,19 +6449,19 @@
     </row>
     <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E168" s="8">
         <v>2020</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G168" s="7">
         <v>5.5114887645923874E-4</v>
@@ -6469,19 +6469,19 @@
     </row>
     <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E169" s="10">
         <v>2020</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G169" s="9">
         <v>7.3603893488446065E-2</v>
@@ -6489,19 +6489,19 @@
     </row>
     <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E170" s="8">
         <v>2020</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G170" s="7">
         <v>0.22309314503927352</v>
@@ -6509,19 +6509,19 @@
     </row>
     <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E171" s="10">
         <v>2020</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G171" s="9">
         <v>0.19820468144528655</v>
@@ -6529,19 +6529,19 @@
     </row>
     <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E172" s="8">
         <v>2020</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G172" s="7">
         <v>3.6854823458227007E-2</v>
@@ -6549,19 +6549,19 @@
     </row>
     <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E173" s="10">
         <v>2020</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G173" s="9">
         <v>0</v>
@@ -6569,19 +6569,19 @@
     </row>
     <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E174" s="8">
         <v>2020</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G174" s="7">
         <v>0</v>
@@ -6589,19 +6589,19 @@
     </row>
     <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E175" s="10">
         <v>2020</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G175" s="9">
         <v>0</v>
@@ -6609,19 +6609,19 @@
     </row>
     <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E176" s="8">
         <v>2020</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G176" s="7">
         <v>0</v>
@@ -6629,19 +6629,19 @@
     </row>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E177" s="10">
         <v>2020</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G177" s="9">
         <v>6.5924896545460882E-2</v>
@@ -6649,19 +6649,19 @@
     </row>
     <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E178" s="8">
         <v>2020</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G178" s="7">
         <v>0.20909901130999836</v>
@@ -6669,19 +6669,19 @@
     </row>
     <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E179" s="10">
         <v>2020</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G179" s="9">
         <v>0.18571266478837026</v>
@@ -6689,19 +6689,19 @@
     </row>
     <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E180" s="8">
         <v>2020</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G180" s="7">
         <v>3.2834855927599174E-2</v>
@@ -6709,19 +6709,19 @@
     </row>
     <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E181" s="10">
         <v>2020</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G181" s="9">
         <v>0</v>
@@ -6729,19 +6729,19 @@
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E182" s="8">
         <v>2020</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G182" s="7">
         <v>0</v>
@@ -6749,19 +6749,19 @@
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E183" s="10">
         <v>2020</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G183" s="9">
         <v>0</v>
@@ -6769,19 +6769,19 @@
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E184" s="8">
         <v>2020</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G184" s="7">
         <v>0</v>
@@ -6789,19 +6789,19 @@
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E185" s="10">
         <v>2020</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G185" s="9">
         <v>6.9476489360947552E-2</v>
@@ -6809,19 +6809,19 @@
     </row>
     <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E186" s="8">
         <v>2020</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G186" s="7">
         <v>0.21517237745717915</v>
@@ -6829,19 +6829,19 @@
     </row>
     <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E187" s="10">
         <v>2020</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G187" s="9">
         <v>0.19152898064445889</v>
@@ -6849,19 +6849,19 @@
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E188" s="8">
         <v>2020</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G188" s="7">
         <v>3.5360614075876033E-2</v>
@@ -6869,19 +6869,19 @@
     </row>
     <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E189" s="10">
         <v>2020</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G189" s="9">
         <v>0</v>
@@ -6889,19 +6889,19 @@
     </row>
     <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E190" s="8">
         <v>2020</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G190" s="7">
         <v>0</v>
@@ -6909,19 +6909,19 @@
     </row>
     <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E191" s="10">
         <v>2020</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G191" s="9">
         <v>0</v>
@@ -6929,19 +6929,19 @@
     </row>
     <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E192" s="8">
         <v>2020</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G192" s="7">
         <v>0</v>
@@ -6949,19 +6949,19 @@
     </row>
     <row r="193" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E193" s="10">
         <v>2020</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G193" s="9">
         <v>6.1574936377302318E-2</v>
@@ -6969,19 +6969,19 @@
     </row>
     <row r="194" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E194" s="8">
         <v>2020</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G194" s="7">
         <v>0.20224121554975075</v>
@@ -6989,19 +6989,19 @@
     </row>
     <row r="195" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E195" s="10">
         <v>2020</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G195" s="9">
         <v>0.17933394761484614</v>
@@ -7009,19 +7009,19 @@
     </row>
     <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E196" s="8">
         <v>2020</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G196" s="7">
         <v>3.0461011569212031E-2</v>
@@ -7029,19 +7029,19 @@
     </row>
     <row r="197" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E197" s="10">
         <v>2020</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G197" s="9">
         <v>0</v>
@@ -7049,19 +7049,19 @@
     </row>
     <row r="198" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E198" s="8">
         <v>2020</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G198" s="7">
         <v>0</v>
@@ -7069,19 +7069,19 @@
     </row>
     <row r="199" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E199" s="10">
         <v>2020</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G199" s="9">
         <v>0</v>
@@ -7089,19 +7089,19 @@
     </row>
     <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E200" s="8">
         <v>2020</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G200" s="7">
         <v>0</v>
@@ -7109,19 +7109,19 @@
     </row>
     <row r="201" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E201" s="10">
         <v>2020</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G201" s="9">
         <v>7.3195826437322808E-2</v>
@@ -7129,19 +7129,19 @@
     </row>
     <row r="202" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E202" s="8">
         <v>2020</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G202" s="7">
         <v>0.22106637187490707</v>
@@ -7149,19 +7149,19 @@
     </row>
     <row r="203" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E203" s="10">
         <v>2020</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G203" s="9">
         <v>0.19713787717964532</v>
@@ -7169,19 +7169,19 @@
     </row>
     <row r="204" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E204" s="8">
         <v>2020</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G204" s="7">
         <v>3.7488813397013848E-2</v>
@@ -7189,19 +7189,19 @@
     </row>
     <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E205" s="10">
         <v>2020</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G205" s="9">
         <v>0</v>
@@ -7209,19 +7209,19 @@
     </row>
     <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E206" s="8">
         <v>2020</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G206" s="7">
         <v>0</v>
@@ -7229,19 +7229,19 @@
     </row>
     <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C207" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E207" s="10">
         <v>2020</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G207" s="9">
         <v>0</v>
@@ -7249,19 +7249,19 @@
     </row>
     <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E208" s="8">
         <v>2020</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G208" s="7">
         <v>0</v>
@@ -7269,19 +7269,19 @@
     </row>
     <row r="209" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C209" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E209" s="10">
         <v>2020</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G209" s="9">
         <v>7.3195826437322808E-2</v>
@@ -7289,19 +7289,19 @@
     </row>
     <row r="210" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E210" s="8">
         <v>2020</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G210" s="7">
         <v>0.22106637187490707</v>
@@ -7309,19 +7309,19 @@
     </row>
     <row r="211" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E211" s="10">
         <v>2020</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G211" s="9">
         <v>0.19713787717964532</v>
@@ -7329,19 +7329,19 @@
     </row>
     <row r="212" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E212" s="8">
         <v>2020</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G212" s="7">
         <v>3.7488813397013848E-2</v>
@@ -7349,19 +7349,19 @@
     </row>
     <row r="213" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E213" s="10">
         <v>2020</v>
       </c>
       <c r="F213" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G213" s="9">
         <v>0</v>
@@ -7369,19 +7369,19 @@
     </row>
     <row r="214" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E214" s="8">
         <v>2020</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G214" s="7">
         <v>0</v>
@@ -7389,19 +7389,19 @@
     </row>
     <row r="215" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E215" s="10">
         <v>2020</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G215" s="9">
         <v>0</v>
@@ -7409,19 +7409,19 @@
     </row>
     <row r="216" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E216" s="8">
         <v>2020</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G216" s="7">
         <v>0</v>
@@ -7429,19 +7429,19 @@
     </row>
     <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C217" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E217" s="10">
         <v>2020</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G217" s="9">
         <v>6.9084931322462129E-2</v>
@@ -7449,19 +7449,19 @@
     </row>
     <row r="218" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E218" s="8">
         <v>2020</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G218" s="7">
         <v>0.21407243953042565</v>
@@ -7469,19 +7469,19 @@
     </row>
     <row r="219" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C219" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E219" s="10">
         <v>2020</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G219" s="9">
         <v>0.19044269883192014</v>
@@ -7489,19 +7489,19 @@
     </row>
     <row r="220" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E220" s="8">
         <v>2020</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G220" s="7">
         <v>3.4605058520320475E-2</v>
@@ -7509,19 +7509,19 @@
     </row>
     <row r="221" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C221" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E221" s="10">
         <v>2020</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G221" s="9">
         <v>0</v>
@@ -7529,19 +7529,19 @@
     </row>
     <row r="222" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E222" s="8">
         <v>2020</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G222" s="7">
         <v>0</v>
@@ -7549,19 +7549,19 @@
     </row>
     <row r="223" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E223" s="10">
         <v>2020</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G223" s="9">
         <v>0</v>
@@ -7569,19 +7569,19 @@
     </row>
     <row r="224" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E224" s="8">
         <v>2020</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G224" s="7">
         <v>0</v>
@@ -7589,19 +7589,19 @@
     </row>
     <row r="225" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C225" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E225" s="10">
         <v>2020</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G225" s="9">
         <v>6.9084931322462129E-2</v>
@@ -7609,19 +7609,19 @@
     </row>
     <row r="226" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E226" s="8">
         <v>2020</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G226" s="7">
         <v>0.21407243953042565</v>
@@ -7629,19 +7629,19 @@
     </row>
     <row r="227" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E227" s="10">
         <v>2020</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G227" s="9">
         <v>0.19044269883192014</v>
@@ -7649,19 +7649,19 @@
     </row>
     <row r="228" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E228" s="8">
         <v>2020</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G228" s="7">
         <v>3.4605058520320475E-2</v>
@@ -7669,19 +7669,19 @@
     </row>
     <row r="229" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E229" s="10">
         <v>2020</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G229" s="9">
         <v>0</v>
@@ -7689,19 +7689,19 @@
     </row>
     <row r="230" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B230" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C230" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="E230" s="12">
         <v>2020</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G230" s="11">
         <v>0</v>
@@ -7909,6 +7909,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -7917,15 +7926,6 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7948,6 +7948,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1DAA58-FAE3-45B9-9E11-80CEEB4D9194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD0B336-FFC1-4D47-AE67-60EF052A00DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7956,12 +7964,4 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1DAA58-FAE3-45B9-9E11-80CEEB4D9194}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>